--- a/doc/06.ディレクトリ構造図.xlsx
+++ b/doc/06.ディレクトリ構造図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913700C0-E695-44D4-B105-EC33411BA7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E76DB-1363-428D-BAB4-32A366BE8F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{481958F8-B167-453F-A798-649551F3055D}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{481958F8-B167-453F-A798-649551F3055D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="215">
   <si>
     <t>├</t>
   </si>
@@ -1338,6 +1338,23 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthlyRequest.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧用のバリデーション</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1811,9 +1828,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>202</v>
       </c>
@@ -1832,26 +1849,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00AFE3F-C832-4E36-AFD2-DE8BA309E35D}">
-  <dimension ref="A1:S125"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="3.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="3.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="35" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="46.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.58203125" style="7" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -1880,12 +1897,12 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1904,7 +1921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1915,7 +1932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1929,7 +1946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1949,7 +1966,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1969,7 +1986,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1984,7 +2001,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -2004,7 +2021,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2024,7 +2041,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2036,7 +2053,7 @@
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2056,7 +2073,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2076,7 +2093,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2096,7 +2113,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2116,7 +2133,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2127,7 +2144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -2141,7 +2158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -2161,7 +2178,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -2181,7 +2198,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -2201,7 +2218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2209,196 +2226,196 @@
         <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="E23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="E25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="E26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J28" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="E29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J29" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2412,13 +2429,13 @@
         <v>48</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2432,13 +2449,13 @@
         <v>48</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
@@ -2452,13 +2469,13 @@
         <v>48</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -2472,13 +2489,13 @@
         <v>48</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -2492,13 +2509,13 @@
         <v>48</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
@@ -2512,140 +2529,140 @@
         <v>48</v>
       </c>
       <c r="I40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J41" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="4" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="11" t="s">
+      <c r="D42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J42" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="4" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="D45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="4" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="7" t="s">
+      <c r="D46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="4" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>26</v>
       </c>
@@ -2659,13 +2676,13 @@
         <v>48</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
@@ -2679,162 +2696,168 @@
         <v>48</v>
       </c>
       <c r="I50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J51" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="4" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="7" t="s">
+      <c r="E52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J52" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="4" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="7" t="s">
+      <c r="E54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J54" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="4" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="7" t="s">
+      <c r="E55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J55" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="4" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="4" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="E57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J57" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="4" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I57" s="7" t="s">
+      <c r="E58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J58" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
         <v>26</v>
       </c>
@@ -2842,22 +2865,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>26</v>
       </c>
@@ -2874,13 +2888,13 @@
         <v>48</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
         <v>26</v>
       </c>
@@ -2897,13 +2911,13 @@
         <v>48</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -2914,19 +2928,19 @@
         <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
@@ -2934,82 +2948,84 @@
         <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E65" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J66" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F69" s="6"/>
-      <c r="I69" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>26</v>
       </c>
@@ -3020,17 +3036,17 @@
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="6"/>
       <c r="I70" s="11" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>26</v>
       </c>
@@ -3038,69 +3054,69 @@
         <v>26</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="F71" s="6"/>
       <c r="I71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="I72" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J72" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F74" s="6"/>
-      <c r="I74" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>26</v>
       </c>
@@ -3111,17 +3127,17 @@
         <v>2</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="6"/>
       <c r="I75" s="11" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
         <v>26</v>
       </c>
@@ -3129,54 +3145,54 @@
         <v>26</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="F76" s="6"/>
       <c r="I76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="I77" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J77" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="6" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="I78" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
         <v>26</v>
       </c>
@@ -3191,13 +3207,13 @@
       </c>
       <c r="F79" s="6"/>
       <c r="I79" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
         <v>26</v>
       </c>
@@ -3212,13 +3228,13 @@
       </c>
       <c r="F80" s="6"/>
       <c r="I80" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4" t="s">
         <v>26</v>
       </c>
@@ -3226,127 +3242,130 @@
         <v>26</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F81" s="6"/>
       <c r="I81" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="I82" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J82" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" s="6"/>
-      <c r="I83" s="11" t="s">
+      <c r="E84" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="I84" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J84" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="4" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="I86" s="11" t="s">
+      <c r="F87" s="6"/>
+      <c r="I87" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J87" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="6" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F88" s="6"/>
-      <c r="I88" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
         <v>26</v>
       </c>
@@ -3358,13 +3377,13 @@
       </c>
       <c r="F89" s="6"/>
       <c r="I89" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
         <v>26</v>
       </c>
@@ -3376,13 +3395,13 @@
       </c>
       <c r="F90" s="6"/>
       <c r="I90" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
         <v>26</v>
       </c>
@@ -3394,13 +3413,13 @@
       </c>
       <c r="F91" s="6"/>
       <c r="I91" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
         <v>26</v>
       </c>
@@ -3412,13 +3431,13 @@
       </c>
       <c r="F92" s="6"/>
       <c r="I92" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
         <v>26</v>
       </c>
@@ -3430,13 +3449,13 @@
       </c>
       <c r="F93" s="6"/>
       <c r="I93" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
@@ -3448,13 +3467,13 @@
       </c>
       <c r="F94" s="6"/>
       <c r="I94" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
         <v>26</v>
       </c>
@@ -3466,13 +3485,13 @@
       </c>
       <c r="F95" s="6"/>
       <c r="I95" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4" t="s">
         <v>26</v>
       </c>
@@ -3480,47 +3499,47 @@
         <v>26</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="6"/>
       <c r="I96" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="I97" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J97" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A97" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="6" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A98" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F98" s="6"/>
-      <c r="I98" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
@@ -3532,13 +3551,13 @@
       </c>
       <c r="F99" s="6"/>
       <c r="I99" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4" t="s">
         <v>26</v>
       </c>
@@ -3550,13 +3569,13 @@
       </c>
       <c r="F100" s="6"/>
       <c r="I100" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4" t="s">
         <v>26</v>
       </c>
@@ -3568,13 +3587,13 @@
       </c>
       <c r="F101" s="6"/>
       <c r="I101" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4" t="s">
         <v>26</v>
       </c>
@@ -3586,13 +3605,13 @@
       </c>
       <c r="F102" s="6"/>
       <c r="I102" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
@@ -3604,13 +3623,13 @@
       </c>
       <c r="F103" s="6"/>
       <c r="I103" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4" t="s">
         <v>26</v>
       </c>
@@ -3622,13 +3641,13 @@
       </c>
       <c r="F104" s="6"/>
       <c r="I104" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
         <v>26</v>
       </c>
@@ -3636,77 +3655,77 @@
         <v>26</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="6"/>
       <c r="I105" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="I106" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="J106" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A106" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="6" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A107" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F107" s="6"/>
-      <c r="I107" s="11" t="s">
+      <c r="F108" s="6"/>
+      <c r="I108" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="J108" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A108" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="6" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A109" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F109" s="6"/>
-      <c r="I109" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J109" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4" t="s">
         <v>26</v>
       </c>
@@ -3718,13 +3737,13 @@
       </c>
       <c r="F110" s="6"/>
       <c r="I110" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
@@ -3736,13 +3755,13 @@
       </c>
       <c r="F111" s="6"/>
       <c r="I111" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4" t="s">
         <v>26</v>
       </c>
@@ -3750,47 +3769,47 @@
         <v>26</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" s="6"/>
       <c r="I112" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="I113" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J113" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A113" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="6" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A114" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F114" s="6"/>
-      <c r="I114" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4" t="s">
         <v>26</v>
       </c>
@@ -3802,13 +3821,13 @@
       </c>
       <c r="F115" s="6"/>
       <c r="I115" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4" t="s">
         <v>26</v>
       </c>
@@ -3816,75 +3835,77 @@
         <v>26</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" s="6"/>
       <c r="I116" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="I117" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J117" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A117" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E117" s="6" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A118" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118" s="6" t="s">
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F118" s="6"/>
-      <c r="I118" s="11" t="s">
+      <c r="F119" s="6"/>
+      <c r="I119" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J118" s="10" t="s">
+      <c r="J119" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A119" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" s="6" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A120" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F120" s="6"/>
-      <c r="I120" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J120" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4" t="s">
         <v>26</v>
       </c>
@@ -3894,76 +3915,92 @@
       </c>
       <c r="F121" s="6"/>
       <c r="I121" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" s="6"/>
       <c r="I122" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="I123" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="J122" s="10" t="s">
+      <c r="J123" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A123" s="6" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J124" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6"/>
       <c r="B125" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I125" s="7" t="s">
+      <c r="C126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I126" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="J125" s="10" t="s">
+      <c r="J126" s="10" t="s">
         <v>201</v>
       </c>
     </row>
